--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_38.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3586552.286178529</v>
+        <v>3690632.411981414</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12502432.03437992</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498523</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7640543.072753547</v>
+        <v>7613296.251723598</v>
       </c>
     </row>
     <row r="11">
@@ -668,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>114.6473952970549</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>20.48969817778197</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -826,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>97.37028815207061</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>184.2485913311685</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -911,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>58.9280504799215</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>186.6104237124461</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>145.6911677128807</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1111,16 +1113,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>82.57906258117926</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>81.27887379618409</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1184,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>290.8263485681719</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1309,7 +1311,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>111.9183583614283</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>90.21356410221091</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1379,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417107</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.154082144413</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1531,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>30.85302310518039</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1774,7 +1776,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>31.26260713376613</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>72.26558381699921</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2002,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>45.66054613217701</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>241.1435815093809</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2239,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>29.9590012402385</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>108.5813113004299</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,16 +2481,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>28.23631843387954</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>113.541358075969</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2524,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2570,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.154082144413</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2609,10 +2611,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2713,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>102.1557845699818</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>55.02344404120736</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2798,10 +2800,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652578</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808192</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>156.741638509606</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>247.8013223415735</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652578</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808338</v>
+        <v>0.8253826161911274</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3317,10 +3319,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652695</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808192</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>104.4564809702501</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652578</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808192</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096056</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>160.6789846282041</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261738</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652578</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808192</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4135,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4147,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>240.4867949051527</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1295.236214140706</v>
+        <v>1323.273454230226</v>
       </c>
       <c r="C2" t="n">
-        <v>1295.236214140706</v>
+        <v>1323.273454230226</v>
       </c>
       <c r="D2" t="n">
-        <v>936.9705155339559</v>
+        <v>965.0077556234758</v>
       </c>
       <c r="E2" t="n">
-        <v>936.9705155339559</v>
+        <v>965.0077556234758</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>554.0218508338683</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>138.3171005581571</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.97538618064</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="Y2" t="n">
-        <v>1681.836054204828</v>
+        <v>1709.873294294348</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686084</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064759</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080138</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986312</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>1675.63996629486</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2238.100841080695</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2561.393271046732</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>431.1278029579779</v>
+        <v>640.9145283561485</v>
       </c>
       <c r="C4" t="n">
-        <v>262.191620030071</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="D4" t="n">
-        <v>262.191620030071</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="E4" t="n">
-        <v>262.191620030071</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242373</v>
+        <v>1151.124277536639</v>
       </c>
       <c r="V4" t="n">
-        <v>1169.327103036486</v>
+        <v>1151.124277536639</v>
       </c>
       <c r="W4" t="n">
-        <v>879.9099329995254</v>
+        <v>861.7071074996786</v>
       </c>
       <c r="X4" t="n">
-        <v>651.920382101508</v>
+        <v>861.7071074996786</v>
       </c>
       <c r="Y4" t="n">
-        <v>431.1278029579779</v>
+        <v>640.9145283561485</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2065.110222835253</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C5" t="n">
-        <v>1696.147705894841</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1337.882007288091</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>952.0937546898465</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>541.107849900239</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>126.0353997452355</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4598,19 +4600,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>3215.315153136266</v>
+        <v>2442.226411579212</v>
       </c>
       <c r="X5" t="n">
-        <v>2841.849394875187</v>
+        <v>2068.760653318132</v>
       </c>
       <c r="Y5" t="n">
-        <v>2451.710062899375</v>
+        <v>1678.62132134232</v>
       </c>
     </row>
     <row r="6">
@@ -4620,34 +4622,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
         <v>765.1517452158134</v>
@@ -4662,34 +4664,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>363.7915515140957</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>363.7915515140957</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>213.6749121017599</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>213.6749121017599</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>213.6749121017599</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4759,16 +4761,16 @@
         <v>1356.675339798491</v>
       </c>
       <c r="V7" t="n">
-        <v>1101.990851592604</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="W7" t="n">
-        <v>812.5736815556431</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="X7" t="n">
-        <v>584.5841306576258</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="Y7" t="n">
-        <v>363.7915515140957</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>1771.41801219738</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1402.455495256968</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1402.455495256968</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1016.667242658724</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>605.6813378691163</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>190.6088877141128</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520488</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W8" t="n">
-        <v>2656.568750250374</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X8" t="n">
-        <v>2656.568750250374</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y8" t="n">
-        <v>2362.804761797675</v>
+        <v>2158.017852261502</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4874,7 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064547</v>
@@ -4881,22 +4883,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>697.2814163499066</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="C10" t="n">
-        <v>528.3452334219998</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="D10" t="n">
-        <v>528.3452334219998</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>380.4321398396066</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1532.729359843122</v>
       </c>
       <c r="U10" t="n">
-        <v>1224.739181610489</v>
+        <v>1243.626492968765</v>
       </c>
       <c r="V10" t="n">
-        <v>970.0546934046018</v>
+        <v>1243.626492968765</v>
       </c>
       <c r="W10" t="n">
-        <v>878.9298811801464</v>
+        <v>954.2093229318045</v>
       </c>
       <c r="X10" t="n">
-        <v>878.9298811801464</v>
+        <v>954.2093229318045</v>
       </c>
       <c r="Y10" t="n">
-        <v>878.9298811801464</v>
+        <v>954.2093229318045</v>
       </c>
     </row>
     <row r="11">
@@ -5027,13 +5029,13 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192548</v>
@@ -5042,40 +5044,40 @@
         <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852888</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1113.119525808646</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="14">
@@ -5270,13 +5272,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075811</v>
@@ -5285,31 +5287,31 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>484.8243144841094</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>980.1499206998682</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1577.52840832642</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>983.3556038098242</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>814.4194208819173</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D16" t="n">
-        <v>664.3027814695815</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>516.3896878871884</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U16" t="n">
-        <v>2157.887856924459</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V16" t="n">
-        <v>1903.203368718572</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W16" t="n">
-        <v>1613.786198681611</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X16" t="n">
-        <v>1385.796647783594</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y16" t="n">
-        <v>1165.004068640064</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,28 +5512,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5540,10 +5542,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5598,22 +5600,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>716.6687843969303</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400717</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>363.7369613277359</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>363.7369613277359</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>363.7369613277359</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1972.677130397314</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969303</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876693</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C22" t="n">
-        <v>580.8993044876693</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>580.8993044876693</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>432.9862109052762</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>432.9862109052762</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>265.7901116201561</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>124.0782804623542</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.547769317909</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="23">
@@ -5963,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6072,22 +6074,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1802.364528928006</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2354.274259167293</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876693</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597624</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D25" t="n">
-        <v>383.4415877881669</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E25" t="n">
-        <v>235.5284942057738</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6145,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="26">
@@ -6206,67 +6208,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>484.8243144841094</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516144</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M27" t="n">
-        <v>1176.533952578166</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N27" t="n">
-        <v>1804.131916132773</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="D28" t="n">
-        <v>241.729756630365</v>
+        <v>546.5917956728314</v>
       </c>
       <c r="E28" t="n">
-        <v>93.81666304797189</v>
+        <v>398.6787020904383</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797189</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6409,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="29">
@@ -6440,13 +6442,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6455,55 +6457,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>484.8243144841094</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319322</v>
+        <v>801.6605733532801</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656816</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150022</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942654</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380731</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311326</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979287</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382519</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973197</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717216</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532431</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.79828551875</v>
+        <v>1250.442703394828</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>1022.45315249681</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>801.6605733532801</v>
       </c>
     </row>
     <row r="32">
@@ -6692,37 +6694,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6734,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6786,19 +6788,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969303</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319322</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150022</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942654</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380731</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311326</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979287</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717216</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532431</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="35">
@@ -6932,25 +6934,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694708</v>
@@ -6965,7 +6967,7 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -7023,13 +7025,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319335</v>
+        <v>3342.53722908186</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656828</v>
+        <v>3173.601046153953</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150035</v>
+        <v>3023.484406741617</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942666</v>
+        <v>2875.571313159224</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580125</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345487</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384031</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380731</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311326</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838287</v>
+        <v>4335.421017366254</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>4080.736529160367</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518752</v>
+        <v>3791.319359123407</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582391</v>
+        <v>3563.32980822539</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400517</v>
+        <v>3342.53722908186</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7166,46 +7168,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M39" t="n">
-        <v>1174.766565373399</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>1802.364528928006</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,61 +7399,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319335</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656828</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150022</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942654</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380731</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311326</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717216</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838287</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518752</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400517</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7637,16 +7639,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075809</v>
@@ -7664,19 +7666,19 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
@@ -7688,7 +7690,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M45" t="n">
-        <v>1174.766565373399</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1802.364528928006</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2354.274259167293</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2354.274259167293</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>779.6143379232836</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C46" t="n">
-        <v>779.6143379232836</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232836</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487568</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1954.146591037918</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V46" t="n">
-        <v>1699.462102832031</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W46" t="n">
-        <v>1410.044932795071</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X46" t="n">
-        <v>1182.055381897053</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y46" t="n">
-        <v>961.2628027535234</v>
+        <v>945.402603663004</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8073,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>21.89339468985681</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23419,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>194.8566322838568</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23662,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>213.9188905722449</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,19 +23892,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>119.8635921600918</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>45.37941682721012</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>51.30683507832701</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>110.0033420516649</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>120.3791545843328</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>32.89260457060013</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>46.45968844823057</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>90.39760398172388</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>38.72167599501751</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25081,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>65.54986409393054</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25363,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>181.7279934189941</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>125.5054897610401</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26023,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>25.7450400779617</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>45.69767948409142</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>665982.5753666116</v>
+        <v>674895.4666182178</v>
       </c>
     </row>
     <row r="3">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>654866.4392271896</v>
+        <v>654866.4392271898</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>665982.5753666116</v>
+        <v>654866.4392271898</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>665982.5753666116</v>
+        <v>654866.4392271896</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>665982.5753666116</v>
+        <v>654866.4392271898</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>665982.5753666116</v>
+        <v>654866.4392271896</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>665982.5753666116</v>
+        <v>654866.4392271896</v>
       </c>
     </row>
     <row r="16">
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710696</v>
       </c>
       <c r="C2" t="n">
         <v>779989.6813710689</v>
@@ -26320,37 +26322,37 @@
         <v>779989.6813710689</v>
       </c>
       <c r="E2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="F2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="G2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>766789.269705506</v>
       </c>
-      <c r="G2" t="n">
-        <v>766789.2697055056</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>766789.2697055057</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>766789.2697055062</v>
+      </c>
+      <c r="K2" t="n">
+        <v>766789.2697055062</v>
+      </c>
+      <c r="L2" t="n">
         <v>766789.269705506</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
+        <v>766789.2697055063</v>
+      </c>
+      <c r="N2" t="n">
         <v>766789.2697055057</v>
       </c>
-      <c r="K2" t="n">
-        <v>779989.6813710695</v>
-      </c>
-      <c r="L2" t="n">
-        <v>779989.6813710694</v>
-      </c>
-      <c r="M2" t="n">
-        <v>779989.6813710695</v>
-      </c>
-      <c r="N2" t="n">
-        <v>779989.6813710694</v>
-      </c>
       <c r="O2" t="n">
-        <v>779989.6813710695</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="P2" t="n">
         <v>766789.2697055059</v>
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>203438.7416121059</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>167605.1778099828</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363178</v>
+        <v>49110.09270605448</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89134.17909312017</v>
+        <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
+        <v>89134.17909312018</v>
+      </c>
+      <c r="D4" t="n">
         <v>89134.17909312015</v>
       </c>
-      <c r="D4" t="n">
-        <v>89134.17909312017</v>
-      </c>
       <c r="E4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768932</v>
       </c>
       <c r="F4" t="n">
         <v>9947.144321768897</v>
@@ -26433,28 +26435,28 @@
         <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
-        <v>17938.00358486237</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
-        <v>17938.00358486233</v>
+        <v>9947.144321768899</v>
       </c>
       <c r="M4" t="n">
-        <v>17938.00358486232</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
-        <v>17938.00358486237</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
-        <v>17938.00358486237</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="P4" t="n">
         <v>9947.144321768897</v>
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-745823.184011037</v>
+        <v>-565630.2850519166</v>
       </c>
       <c r="C6" t="n">
-        <v>582921.5617165555</v>
+        <v>379482.8201044495</v>
       </c>
       <c r="D6" t="n">
         <v>582921.5617165555</v>
       </c>
       <c r="E6" t="n">
-        <v>330307.1337524745</v>
+        <v>330307.1337524746</v>
       </c>
       <c r="F6" t="n">
+        <v>655719.5955598298</v>
+      </c>
+      <c r="G6" t="n">
+        <v>655719.59555983</v>
+      </c>
+      <c r="H6" t="n">
         <v>655719.5955598301</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
+        <v>655719.5955598297</v>
+      </c>
+      <c r="J6" t="n">
+        <v>488114.4177498473</v>
+      </c>
+      <c r="K6" t="n">
+        <v>606609.5028537756</v>
+      </c>
+      <c r="L6" t="n">
+        <v>655719.5955598301</v>
+      </c>
+      <c r="M6" t="n">
+        <v>570664.5676243184</v>
+      </c>
+      <c r="N6" t="n">
         <v>655719.5955598296</v>
       </c>
-      <c r="H6" t="n">
+      <c r="O6" t="n">
         <v>655719.5955598297</v>
       </c>
-      <c r="I6" t="n">
+      <c r="P6" t="n">
         <v>655719.5955598301</v>
-      </c>
-      <c r="J6" t="n">
-        <v>438188.3931625521</v>
-      </c>
-      <c r="K6" t="n">
-        <v>639459.84393866</v>
-      </c>
-      <c r="L6" t="n">
-        <v>658887.5619322916</v>
-      </c>
-      <c r="M6" t="n">
-        <v>573832.5339967799</v>
-      </c>
-      <c r="N6" t="n">
-        <v>658887.5619322916</v>
-      </c>
-      <c r="O6" t="n">
-        <v>658887.5619322917</v>
-      </c>
-      <c r="P6" t="n">
-        <v>655719.5955598298</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022928</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26811,25 +26813,25 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="O4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="O4" t="n">
-        <v>1172.708288099649</v>
-      </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,10 +26931,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>292.2286504446565</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>280.5288543846234</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,10 +27438,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27546,13 +27548,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>48.05075987086063</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27588,19 +27590,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>101.9785627900321</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>235.679713907399</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,13 +27672,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>162.6305450049669</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>20.33464054614751</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27831,16 +27833,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>136.0055907709155</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>213.3288905911364</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>95.41159008788173</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28029,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>107.6305909147409</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>196.3094342343801</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28099,7 +28101,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>7.394985773160066e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>381.6404378718164</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159414</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>279.2419622547056</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>750.6021172789107</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>620.1193660647493</v>
+        <v>281.0363767960755</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162548</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P24" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,34 +33022,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>381.6404378718164</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>198.560797075695</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33257,22 +33259,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>379.8551982710414</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437244</v>
@@ -33281,10 +33283,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33506,7 +33508,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>620.1193660647493</v>
+        <v>583.1096135868572</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071786</v>
@@ -33521,7 +33523,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33743,16 +33745,16 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>437.853104691376</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33889,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33916,7 +33918,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33968,7 +33970,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33986,7 +33988,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>237.3557891543622</v>
+        <v>198.560797075695</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214699</v>
@@ -33995,7 +33997,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34132,7 +34134,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L41" t="n">
         <v>867.8464071162563</v>
@@ -34205,13 +34207,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473073</v>
@@ -34220,16 +34222,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>139.5228722182826</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>340.7767527663067</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.9556134883069083</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35491,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35728,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>243.7989988974574</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,25 +35968,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>140.6875824748315</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>619.2604051955774</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>477.985332142731</v>
+        <v>138.9023428740572</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P24" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>243.7989988974574</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>55.96455263125056</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>242.0137592966825</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.48457599928</v>
@@ -36929,10 +36931,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549932</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37154,7 +37156,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>477.985332142731</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238454</v>
@@ -37169,7 +37171,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549932</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37391,16 +37393,16 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549932</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37564,7 +37566,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37634,7 +37636,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>94.75954470991782</v>
+        <v>55.96455263125056</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071396</v>
@@ -37643,7 +37645,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549932</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37782,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L41" t="n">
         <v>632.079992146269</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.3288951674331</v>
@@ -37868,16 +37870,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>8.181160134949316</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549932</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462684</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38098,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>200.7949786802852</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3690632.411981414</v>
+        <v>3686578.286222034</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7613296.251723598</v>
+        <v>7613296.251723597</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -676,7 +676,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>20.48969817778197</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>80.91335427439728</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -718,10 +718,10 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -828,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>18.8607367074913</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>184.2485913311685</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>212.2140719095439</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>186.6104237124461</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1074,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>13.02719212039631</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>82.57906258117926</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1150,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>81.27887379618409</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1186,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>183.1642512458438</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>111.9183583614283</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>51.06561173382029</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417107</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,16 +1584,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>259.2071834555121</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>30.85302310518039</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1773,16 +1773,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>20.92847288552876</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>72.26558381699921</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>241.1435815093809</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>108.5813113004299</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>113.541358075969</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710067</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2614,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>55.02344404120736</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>247.8013223415735</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0.8253826161911274</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>104.4564809702501</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>160.6789846282041</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>73.23997380652436</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>55.52079624060383</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1323.273454230226</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="C2" t="n">
-        <v>1323.273454230226</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="D2" t="n">
-        <v>965.0077556234758</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="E2" t="n">
-        <v>965.0077556234758</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F2" t="n">
-        <v>554.0218508338683</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G2" t="n">
-        <v>138.3171005581571</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4330,13 +4330,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2480.608667516926</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2271.86302612275</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.01262627016</v>
+        <v>2018.28196538693</v>
       </c>
       <c r="V2" t="n">
-        <v>2100.01262627016</v>
+        <v>1687.219078043359</v>
       </c>
       <c r="W2" t="n">
-        <v>2100.01262627016</v>
+        <v>1334.450422773245</v>
       </c>
       <c r="X2" t="n">
-        <v>2100.01262627016</v>
+        <v>1334.450422773245</v>
       </c>
       <c r="Y2" t="n">
-        <v>1709.873294294348</v>
+        <v>944.3110907974335</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
@@ -4409,7 +4409,7 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
         <v>298.3188265310613</v>
@@ -4424,13 +4424,13 @@
         <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>1675.63996629486</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P3" t="n">
-        <v>2238.100841080695</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2561.393271046732</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.9145283561485</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C4" t="n">
-        <v>471.9783454282416</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
-        <v>471.9783454282416</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>471.9783454282416</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>325.0883979303312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1617.394870875011</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.233965749941</v>
+        <v>1394.416390069746</v>
       </c>
       <c r="U4" t="n">
-        <v>1151.124277536639</v>
+        <v>1105.298052573584</v>
       </c>
       <c r="V4" t="n">
-        <v>1151.124277536639</v>
+        <v>850.6135643676972</v>
       </c>
       <c r="W4" t="n">
-        <v>861.7071074996786</v>
+        <v>850.6135643676972</v>
       </c>
       <c r="X4" t="n">
-        <v>861.7071074996786</v>
+        <v>622.6240134696799</v>
       </c>
       <c r="Y4" t="n">
-        <v>640.9145283561485</v>
+        <v>401.8314343261497</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1678.62132134232</v>
+        <v>1517.887535471216</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1148.925018530804</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1148.925018530804</v>
       </c>
       <c r="E5" t="n">
         <v>934.5673701373257</v>
@@ -4564,31 +4564,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4600,19 +4600,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
         <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2442.226411579212</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X5" t="n">
-        <v>2068.760653318132</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y5" t="n">
-        <v>1678.62132134232</v>
+        <v>1904.487375535338</v>
       </c>
     </row>
     <row r="6">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.675339798491</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1356.675339798491</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="W7" t="n">
-        <v>1356.675339798491</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X7" t="n">
-        <v>1356.675339798491</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1771.41801219738</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1402.455495256968</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1402.455495256968</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1016.667242658724</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>605.6813378691163</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>190.6088877141128</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792696</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.483610522581</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.017852261502</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y8" t="n">
-        <v>2158.017852261502</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4886,13 +4886,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4901,34 +4901,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>772.5608581015648</v>
+        <v>701.1808689801002</v>
       </c>
       <c r="C10" t="n">
-        <v>772.5608581015648</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1532.729359843122</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1243.626492968765</v>
+        <v>1875.713122094735</v>
       </c>
       <c r="V10" t="n">
-        <v>1243.626492968765</v>
+        <v>1621.028633888848</v>
       </c>
       <c r="W10" t="n">
-        <v>954.2093229318045</v>
+        <v>1331.611463851887</v>
       </c>
       <c r="X10" t="n">
-        <v>954.2093229318045</v>
+        <v>1103.62191295387</v>
       </c>
       <c r="Y10" t="n">
-        <v>954.2093229318045</v>
+        <v>882.8293338103399</v>
       </c>
     </row>
     <row r="11">
@@ -5023,10 +5023,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5035,49 +5035,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852888</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.4710609784063</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5232,19 +5232,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1715.635642676658</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1715.635642676658</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X13" t="n">
-        <v>1113.119525808646</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y13" t="n">
-        <v>1113.119525808646</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5260,40 +5260,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5366,19 +5366,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.311647517212</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2425.823211978716</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2242.968377633621</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235165</v>
+        <v>2023.366912656562</v>
       </c>
       <c r="U16" t="n">
-        <v>2191.112710026075</v>
+        <v>1734.29168600076</v>
       </c>
       <c r="V16" t="n">
-        <v>1936.428221820188</v>
+        <v>1479.607197794873</v>
       </c>
       <c r="W16" t="n">
-        <v>1647.011051783227</v>
+        <v>1190.190027757912</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>962.2004768598947</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>741.4078977163646</v>
       </c>
     </row>
     <row r="17">
@@ -5497,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5521,16 +5521,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2283.159972732779</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2227.361618603201</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1972.677130397314</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5740,7 +5740,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5837,19 +5837,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>983.3556038098237</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>814.4194208819168</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>664.3027814695811</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
         <v>402.7245934908939</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.887856924458</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1903.203368718571</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1613.786198681611</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1385.796647783593</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1165.004068640063</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6220,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6253,25 +6253,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>484.8243144841094</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>696.7084350851671</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>546.5917956728314</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>398.6787020904383</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6445,10 +6445,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6457,55 +6457,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>484.8243144841094</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>801.6605733532801</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1250.442703394828</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1022.45315249681</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>801.6605733532801</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6697,19 +6697,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>411.1294017454277</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D34" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
         <v>261.0127623330919</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.129363765926</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2263.274529420831</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2043.673064443772</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6931,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,37 +6949,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.311647517213</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2252.2213777565</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3342.53722908186</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>3173.601046153953</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>3023.484406741617</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159224</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661314</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4440.932614305901</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>4335.421017366254</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>4080.736529160367</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3791.319359123407</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3563.32980822539</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3342.53722908186</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,37 +7186,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282754</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458823</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797189</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>1022.530292372932</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>853.5941094450255</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>1204.178757203172</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327643</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>594.8179559048574</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>296.7882229101285</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>149.8982754122182</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>149.8982754122182</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>149.8982754122182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.402603663004</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8072,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>0.9556134883071081</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8081,7 +8081,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>21.89339468985681</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,16 +23472,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>26.97729093373204</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>194.8566322838568</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23661,16 +23661,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>45.44677382459292</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>213.9188905722449</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>45.37941682721012</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>110.0033420516649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>32.89260457060013</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>90.39760398172388</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>38.72167599501751</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>62.35543909864963</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>65.54986409393054</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>181.7279934189941</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>125.5054897610401</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>75.37549921168799</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>25.7450400779617</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>654866.4392271896</v>
+        <v>654866.4392271898</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>654866.4392271898</v>
+        <v>654866.4392271896</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>654866.4392271898</v>
+        <v>654866.4392271896</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>654866.4392271898</v>
+        <v>654866.4392271896</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>654866.4392271898</v>
+        <v>654866.4392271896</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>654866.4392271898</v>
+        <v>654866.4392271896</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>654866.4392271898</v>
+        <v>654866.4392271896</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>654866.4392271898</v>
+        <v>654866.4392271896</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>654866.4392271896</v>
+        <v>654866.4392271898</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>654866.4392271898</v>
+        <v>654866.4392271896</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710696</v>
+        <v>779989.6813710693</v>
       </c>
       <c r="C2" t="n">
         <v>779989.6813710689</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.681371069</v>
       </c>
       <c r="E2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="F2" t="n">
         <v>766789.2697055057</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>766789.2697055062</v>
+      </c>
+      <c r="H2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="I2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="J2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="G2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="H2" t="n">
-        <v>766789.269705506</v>
-      </c>
-      <c r="I2" t="n">
-        <v>766789.2697055057</v>
-      </c>
-      <c r="J2" t="n">
-        <v>766789.2697055062</v>
-      </c>
       <c r="K2" t="n">
-        <v>766789.2697055062</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="L2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="M2" t="n">
-        <v>766789.2697055063</v>
+        <v>766789.2697055056</v>
       </c>
       <c r="N2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055056</v>
       </c>
       <c r="O2" t="n">
         <v>766789.2697055057</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055058</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121059</v>
+        <v>203438.7416121061</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099828</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605448</v>
+        <v>49110.09270605451</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,19 +26420,19 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
+        <v>89134.17909312015</v>
+      </c>
+      <c r="D4" t="n">
         <v>89134.17909312018</v>
       </c>
-      <c r="D4" t="n">
-        <v>89134.17909312015</v>
-      </c>
       <c r="E4" t="n">
-        <v>9947.144321768932</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768899</v>
       </c>
       <c r="H4" t="n">
         <v>9947.144321768897</v>
@@ -26441,13 +26441,13 @@
         <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
+        <v>9947.144321768938</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9947.144321768948</v>
+      </c>
+      <c r="L4" t="n">
         <v>9947.144321768897</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9947.144321768897</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9947.144321768899</v>
       </c>
       <c r="M4" t="n">
         <v>9947.144321768897</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-565630.2850519166</v>
+        <v>-565630.2850519168</v>
       </c>
       <c r="C6" t="n">
-        <v>379482.8201044495</v>
+        <v>379482.8201044494</v>
       </c>
       <c r="D6" t="n">
-        <v>582921.5617165555</v>
+        <v>582921.5617165556</v>
       </c>
       <c r="E6" t="n">
-        <v>330307.1337524746</v>
+        <v>329959.7544981177</v>
       </c>
       <c r="F6" t="n">
-        <v>655719.5955598298</v>
+        <v>655372.2163054728</v>
       </c>
       <c r="G6" t="n">
-        <v>655719.59555983</v>
+        <v>655372.2163054732</v>
       </c>
       <c r="H6" t="n">
-        <v>655719.5955598301</v>
+        <v>655372.216305473</v>
       </c>
       <c r="I6" t="n">
-        <v>655719.5955598297</v>
+        <v>655372.216305473</v>
       </c>
       <c r="J6" t="n">
-        <v>488114.4177498473</v>
+        <v>487767.0384954903</v>
       </c>
       <c r="K6" t="n">
-        <v>606609.5028537756</v>
+        <v>606262.1235994184</v>
       </c>
       <c r="L6" t="n">
-        <v>655719.5955598301</v>
+        <v>655372.2163054729</v>
       </c>
       <c r="M6" t="n">
-        <v>570664.5676243184</v>
+        <v>570317.1883699608</v>
       </c>
       <c r="N6" t="n">
-        <v>655719.5955598296</v>
+        <v>655372.2163054727</v>
       </c>
       <c r="O6" t="n">
-        <v>655719.5955598297</v>
+        <v>655372.2163054728</v>
       </c>
       <c r="P6" t="n">
-        <v>655719.5955598301</v>
+        <v>655372.2163054729</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26712,7 +26712,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26792,10 +26792,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26822,10 +26822,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.816623302254</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.816623302254</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.816623302254</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>280.5288543846234</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>42.5388611243971</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,10 +27438,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27548,16 +27548,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>175.8017236542462</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>101.9785627900321</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>169.7162981627179</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>162.6305450049669</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>239.1104512034317</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>136.0055907709155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>213.3288905911364</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>186.5668494326252</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>107.6305909147409</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>235.1462264717926</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28101,7 +28101,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>7.394985773160066e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -29277,7 +29277,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29568,7 +29568,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -31044,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31144,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31235,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -32086,22 +32086,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>303.4297552732313</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32326,19 +32326,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>750.6021172789107</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32557,22 +32557,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>281.0363767960755</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32724,7 +32724,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
         <v>790.8204499236507</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,7 +32812,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>381.6404378718164</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,22 +33265,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>379.8551982710414</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>437.853104691376</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>198.560797075695</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,34 +34444,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>336.3802954844301</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>0.9556134883069083</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34868,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34877,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35734,22 +35734,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>160.8335108287869</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35974,19 +35974,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>619.2604051955774</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36205,22 +36205,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>138.9023428740572</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36372,7 +36372,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>243.7989988974574</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>242.0137592966825</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,19 +37390,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>303.8786972770457</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>55.96455263125056</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3686578.286222034</v>
+        <v>3688338.816524819</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>90.0988650643078</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>80.91335427439728</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -867,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>18.8607367074913</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>90.69811547110066</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>213.0175435007626</v>
       </c>
       <c r="E5" t="n">
-        <v>212.2140719095439</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -1150,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>183.1642512458438</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>274.7944255145766</v>
       </c>
     </row>
     <row r="9">
@@ -1308,7 +1308,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>51.06561173382014</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>51.06561173382029</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187862</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1542,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>60.25690685266579</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2071834555121</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1773,10 +1773,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>20.92847288552876</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710067</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881276</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="32">
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>104.8913819999782</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>73.23997380652436</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>25.52471385612634</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>944.3110907974335</v>
+        <v>1363.669246337129</v>
       </c>
       <c r="C2" t="n">
-        <v>944.3110907974335</v>
+        <v>1363.669246337129</v>
       </c>
       <c r="D2" t="n">
-        <v>944.3110907974335</v>
+        <v>1005.403547730378</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974335</v>
+        <v>619.6152951321342</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078259</v>
+        <v>208.6293903425266</v>
       </c>
       <c r="G2" t="n">
         <v>117.6204357321147</v>
@@ -4327,19 +4327,19 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2480.608667516926</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2271.86302612275</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2018.28196538693</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V2" t="n">
-        <v>1687.219078043359</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W2" t="n">
-        <v>1334.450422773245</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="X2" t="n">
-        <v>1334.450422773245</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="Y2" t="n">
-        <v>944.3110907974335</v>
+        <v>1363.669246337129</v>
       </c>
     </row>
     <row r="3">
@@ -4400,34 +4400,34 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O3" t="n">
-        <v>1676.586023648284</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>220.18296949591</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C4" t="n">
-        <v>51.24678656800311</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4515,25 +4515,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1617.394870875011</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1394.416390069746</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1105.298052573584</v>
+        <v>1544.831862022881</v>
       </c>
       <c r="V4" t="n">
-        <v>850.6135643676972</v>
+        <v>1290.147373816994</v>
       </c>
       <c r="W4" t="n">
-        <v>850.6135643676972</v>
+        <v>1000.730203780033</v>
       </c>
       <c r="X4" t="n">
-        <v>622.6240134696799</v>
+        <v>772.7406528820156</v>
       </c>
       <c r="Y4" t="n">
-        <v>401.8314343261497</v>
+        <v>551.9480737384855</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1517.887535471216</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="C5" t="n">
-        <v>1148.925018530804</v>
+        <v>1535.524858594926</v>
       </c>
       <c r="D5" t="n">
-        <v>1148.925018530804</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
         <v>934.5673701373257</v>
@@ -4567,10 +4567,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4582,7 +4582,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
@@ -4640,19 +4640,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4846,10 +4846,10 @@
         <v>3009.337405520488</v>
       </c>
       <c r="X8" t="n">
-        <v>2824.323010322666</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="Y8" t="n">
-        <v>2434.183678346854</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>701.1808689801002</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>532.2446860521933</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>382.1280466398576</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>234.2149530574645</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>118.0935424259411</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218342</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1875.713122094735</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1621.028633888848</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1331.611463851887</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>1103.62191295387</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>882.8293338103399</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5023,13 +5023,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5047,13 +5047,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5062,7 +5062,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5117,22 +5117,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>154.6822255254121</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5232,19 +5232,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1715.635642676658</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1715.635642676658</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W13" t="n">
-        <v>1426.218472639697</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X13" t="n">
-        <v>1198.22892174168</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="14">
@@ -5260,16 +5260,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5354,16 +5354,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
         <v>1373.553594266881</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>559.7594328861248</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C16" t="n">
-        <v>390.823249958218</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D16" t="n">
-        <v>240.7066105458822</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2425.823211978716</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S16" t="n">
-        <v>2242.968377633621</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T16" t="n">
-        <v>2023.366912656562</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U16" t="n">
-        <v>1734.29168600076</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V16" t="n">
-        <v>1479.607197794873</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W16" t="n">
-        <v>1190.190027757912</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X16" t="n">
-        <v>962.2004768598947</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y16" t="n">
-        <v>741.4078977163646</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5533,7 +5533,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5606,7 +5606,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5652,22 +5652,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5977,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6217,28 +6217,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6253,25 +6253,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6375,13 +6375,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,31 +6460,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797186</v>
@@ -6666,7 +6666,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6837,19 +6837,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6919,16 +6919,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -7074,22 +7074,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7171,10 +7171,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075813</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1022.530292372932</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>853.5941094450255</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2197.062545487567</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1942.37805728168</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1652.96088724472</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1424.971336346702</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1204.178757203172</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9556134883071081</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>193.3273467878343</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>105.2672314396031</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>26.97729093373204</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23661,10 +23661,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>45.44677382459292</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="32">
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>62.35543909864963</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,13 +25086,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>41.54258064659096</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>75.37549921168799</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>191.8807364711619</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>654866.4392271896</v>
+        <v>654866.4392271898</v>
       </c>
     </row>
     <row r="8">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>654866.4392271896</v>
+        <v>654866.4392271898</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>654866.4392271898</v>
+        <v>654866.4392271896</v>
       </c>
     </row>
     <row r="16">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710693</v>
+        <v>779989.6813710694</v>
       </c>
       <c r="C2" t="n">
         <v>779989.6813710689</v>
@@ -26322,16 +26322,16 @@
         <v>779989.681371069</v>
       </c>
       <c r="E2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="F2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="G2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="H2" t="n">
         <v>766789.2697055058</v>
-      </c>
-      <c r="F2" t="n">
-        <v>766789.2697055057</v>
-      </c>
-      <c r="G2" t="n">
-        <v>766789.2697055062</v>
-      </c>
-      <c r="H2" t="n">
-        <v>766789.2697055059</v>
       </c>
       <c r="I2" t="n">
         <v>766789.2697055059</v>
@@ -26343,16 +26343,16 @@
         <v>766789.2697055058</v>
       </c>
       <c r="L2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="M2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="M2" t="n">
-        <v>766789.2697055056</v>
-      </c>
       <c r="N2" t="n">
-        <v>766789.2697055056</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="O2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="P2" t="n">
         <v>766789.2697055058</v>
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121061</v>
+        <v>203438.7416121059</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26392,7 +26392,7 @@
         <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605451</v>
+        <v>49110.09270605448</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312015</v>
+        <v>89134.17909312017</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312018</v>
+        <v>89134.17909312021</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
@@ -26432,7 +26432,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
         <v>9947.144321768897</v>
@@ -26441,10 +26441,10 @@
         <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768938</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768948</v>
+        <v>9947.144321768941</v>
       </c>
       <c r="L4" t="n">
         <v>9947.144321768897</v>
@@ -26524,46 +26524,46 @@
         <v>-565630.2850519168</v>
       </c>
       <c r="C6" t="n">
-        <v>379482.8201044494</v>
+        <v>379482.8201044496</v>
       </c>
       <c r="D6" t="n">
         <v>582921.5617165556</v>
       </c>
       <c r="E6" t="n">
-        <v>329959.7544981177</v>
+        <v>330272.3958270388</v>
       </c>
       <c r="F6" t="n">
-        <v>655372.2163054728</v>
+        <v>655684.8576343943</v>
       </c>
       <c r="G6" t="n">
-        <v>655372.2163054732</v>
+        <v>655684.8576343943</v>
       </c>
       <c r="H6" t="n">
-        <v>655372.216305473</v>
+        <v>655684.8576343942</v>
       </c>
       <c r="I6" t="n">
-        <v>655372.216305473</v>
+        <v>655684.8576343943</v>
       </c>
       <c r="J6" t="n">
-        <v>487767.0384954903</v>
+        <v>488079.6798244115</v>
       </c>
       <c r="K6" t="n">
-        <v>606262.1235994184</v>
+        <v>606574.7649283397</v>
       </c>
       <c r="L6" t="n">
-        <v>655372.2163054729</v>
+        <v>655684.8576343941</v>
       </c>
       <c r="M6" t="n">
-        <v>570317.1883699608</v>
+        <v>570629.8296988823</v>
       </c>
       <c r="N6" t="n">
-        <v>655372.2163054727</v>
+        <v>655684.8576343941</v>
       </c>
       <c r="O6" t="n">
-        <v>655372.2163054728</v>
+        <v>655684.8576343942</v>
       </c>
       <c r="P6" t="n">
-        <v>655372.2163054729</v>
+        <v>655684.8576343942</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.711808475759</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27384,16 +27384,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>321.4488377086462</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>42.5388611243971</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27542,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27554,7 +27554,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27587,19 +27587,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>175.8017236542462</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>195.5290386500999</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>141.6654981199204</v>
       </c>
       <c r="E5" t="n">
-        <v>169.7162981627179</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>186.5668494326252</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>111.443513141477</v>
       </c>
     </row>
     <row r="9">
@@ -28028,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>93.68940318050065</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>235.1462264717926</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -29277,7 +29277,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29568,7 +29568,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31855,7 +31855,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32086,7 +32086,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>446.0127311990643</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32326,10 +32326,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33891,13 +33891,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>336.3802954844301</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634694</v>
+        <v>443.0068759113666</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35503,7 +35503,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35734,7 +35734,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>303.8786972770459</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35974,10 +35974,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36129,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37539,13 +37539,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
